--- a/Sprint 5/Sprint_5 Burndown-Backlog.xlsx
+++ b/Sprint 5/Sprint_5 Burndown-Backlog.xlsx
@@ -209,7 +209,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -304,6 +304,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -489,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -549,25 +555,49 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,11 +636,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,40 +657,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2830,11 +2837,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="205260632"/>
-        <c:axId val="205261024"/>
+        <c:axId val="184086016"/>
+        <c:axId val="184409696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205260632"/>
+        <c:axId val="184086016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2915,7 +2922,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205261024"/>
+        <c:crossAx val="184409696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2923,7 +2930,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205261024"/>
+        <c:axId val="184409696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,7 +3012,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205260632"/>
+        <c:crossAx val="184086016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3339,11 +3346,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="205262200"/>
-        <c:axId val="205262592"/>
+        <c:axId val="184566664"/>
+        <c:axId val="184649488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205262200"/>
+        <c:axId val="184566664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3416,7 +3423,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205262592"/>
+        <c:crossAx val="184649488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3424,7 +3431,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205262592"/>
+        <c:axId val="184649488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3506,7 +3513,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205262200"/>
+        <c:crossAx val="184566664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3840,11 +3847,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="208327088"/>
-        <c:axId val="208327480"/>
+        <c:axId val="184309656"/>
+        <c:axId val="185364024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="208327088"/>
+        <c:axId val="184309656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,7 +3924,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208327480"/>
+        <c:crossAx val="185364024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3925,7 +3932,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208327480"/>
+        <c:axId val="185364024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,7 +4014,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208327088"/>
+        <c:crossAx val="184309656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4341,11 +4348,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="208328656"/>
-        <c:axId val="208329048"/>
+        <c:axId val="185275152"/>
+        <c:axId val="186067368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="208328656"/>
+        <c:axId val="185275152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4418,7 +4425,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208329048"/>
+        <c:crossAx val="186067368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4426,7 +4433,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208329048"/>
+        <c:axId val="186067368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4508,7 +4515,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208328656"/>
+        <c:crossAx val="185275152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4990,7 +4997,7 @@
   <dimension ref="A1:AB1048572"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5007,16 +5014,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5041,27 +5048,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="33">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5085,9 +5092,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5100,8 +5107,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5123,22 +5130,22 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="29">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="37">
         <f>SUM(F5:F11)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5160,18 +5167,18 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="56" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="28"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -5192,16 +5199,16 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="49"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="57"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="28"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -5222,16 +5229,16 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
-      <c r="B7" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="58" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="28"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="6"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -5253,16 +5260,16 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="59" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="57"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="6"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -5284,16 +5291,16 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="59" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="50"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="57"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="6"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -5315,18 +5322,18 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="57"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="6"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -5348,16 +5355,16 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="56" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="28"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="57"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="6"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -5637,12 +5644,6 @@
     <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G4:G11"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -5650,6 +5651,12 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G4:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I4">
     <cfRule type="expression" dxfId="127" priority="2">
@@ -5694,20 +5701,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -5766,40 +5773,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="42">
         <v>8</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="43" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -5811,18 +5818,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -5971,18 +5978,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -6740,20 +6747,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -6812,40 +6819,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="42">
         <v>8</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="43" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -6857,18 +6864,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7017,18 +7024,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7094,10 +7101,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -7131,18 +7138,18 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -7176,18 +7183,18 @@
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -7221,18 +7228,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="13">
         <v>0</v>
       </c>
@@ -7266,18 +7273,18 @@
         <v>0.74375000000000002</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13">
         <v>0</v>
       </c>
@@ -7316,16 +7323,6 @@
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7340,6 +7337,16 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
     <cfRule type="expression" dxfId="26" priority="2">
@@ -7401,20 +7408,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -7473,40 +7480,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="42">
         <v>8</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="43" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -7518,18 +7525,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7678,18 +7685,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7755,39 +7762,39 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0</v>
-      </c>
-      <c r="K10" s="23">
+      <c r="B10" s="51"/>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
         <f>SUM(C10:J10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="21">
         <f>K10/A$3</f>
         <v>0</v>
       </c>
@@ -7800,39 +7807,39 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0</v>
-      </c>
-      <c r="J11" s="23">
-        <v>0</v>
-      </c>
-      <c r="K11" s="23">
+      <c r="B11" s="54"/>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
         <f>SUM(C11:J11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="21">
         <f>K11/A$3</f>
         <v>0</v>
       </c>
@@ -7845,39 +7852,39 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="23">
-        <v>0</v>
-      </c>
-      <c r="D12" s="23">
+      <c r="B12" s="49"/>
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
         <v>3.3</v>
       </c>
-      <c r="E12" s="23">
-        <v>0</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
         <v>3</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="21">
         <v>4.2</v>
       </c>
-      <c r="I12" s="23">
-        <v>0</v>
-      </c>
-      <c r="J12" s="23">
-        <v>0</v>
-      </c>
-      <c r="K12" s="23">
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
         <f>SUM(C12:J12)</f>
         <v>10.5</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="21">
         <f>K12/A$3</f>
         <v>1.3125</v>
       </c>
@@ -7890,39 +7897,39 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="23">
-        <v>0</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0</v>
-      </c>
-      <c r="J13" s="23">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
+      <c r="B13" s="48"/>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
         <f>SUM(C13:J13)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="21">
         <f>K13/A$3</f>
         <v>0</v>
       </c>
@@ -7935,39 +7942,39 @@
       <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="23">
-        <v>0</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0</v>
-      </c>
-      <c r="J14" s="23">
-        <v>0</v>
-      </c>
-      <c r="K14" s="23">
+      <c r="B14" s="48"/>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
         <f>SUM(C14:J14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="21">
         <f>K14/A$3</f>
         <v>0</v>
       </c>
@@ -7978,12 +7985,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7998,6 +7999,12 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L14">
     <cfRule type="expression" dxfId="19" priority="12">
@@ -8074,20 +8081,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -8146,40 +8153,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="42">
         <v>8</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="43" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -8191,18 +8198,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8351,18 +8358,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8428,10 +8435,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -8473,10 +8480,10 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -8518,10 +8525,10 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -8563,10 +8570,10 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="13">
         <v>0</v>
       </c>
@@ -8608,10 +8615,10 @@
       <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13">
         <v>0</v>
       </c>
@@ -8651,12 +8658,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -8671,6 +8672,12 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L14">
     <cfRule type="expression" dxfId="9" priority="10">

--- a/Sprint 5/Sprint_5 Burndown-Backlog.xlsx
+++ b/Sprint 5/Sprint_5 Burndown-Backlog.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -124,47 +124,7 @@
     <t>DIOGO DATA</t>
   </si>
   <si>
-    <t>Módulo Busca de Paciente</t>
-  </si>
-  <si>
-    <t>Módulo cadastro de funcionário</t>
-  </si>
-  <si>
-    <t>Módulo Busca de Funcionário</t>
-  </si>
-  <si>
     <t>Módulo Agendamento</t>
-  </si>
-  <si>
-    <t>Integração de módulos</t>
-  </si>
-  <si>
-    <t>Terça
-04/10/2016</t>
-  </si>
-  <si>
-    <t>Quarta
-05/10/2016</t>
-  </si>
-  <si>
-    <t>Quinta
-06/10/2016</t>
-  </si>
-  <si>
-    <t>Sexta
-07/10/2016</t>
-  </si>
-  <si>
-    <t>Sábado
-08/10/2016</t>
-  </si>
-  <si>
-    <t>Domingo
-09/10/2016</t>
-  </si>
-  <si>
-    <t>Segunda
-10/10/2016</t>
   </si>
   <si>
     <t>Terça
@@ -177,13 +137,7 @@
     <t>Inserção de busca de funcionário</t>
   </si>
   <si>
-    <t>Criar tela calendario</t>
-  </si>
-  <si>
     <t>Modulo calendario</t>
-  </si>
-  <si>
-    <t>Inserir calendario para busca de data</t>
   </si>
   <si>
     <t>Tratamento de exceção para busca de hora</t>
@@ -200,6 +154,46 @@
   <si>
     <t>Reajuste de agendamento</t>
   </si>
+  <si>
+    <t>Estudo da biblioteca JCalendar</t>
+  </si>
+  <si>
+    <t>Inserção de metodos para busca de data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementação gráfica do JDateChooser e seus eventos </t>
+  </si>
+  <si>
+    <t>Quarta
+12/10/2016</t>
+  </si>
+  <si>
+    <t>Quinta
+13/10/2016</t>
+  </si>
+  <si>
+    <t>Sexta
+14/10/2016</t>
+  </si>
+  <si>
+    <t>Sábado
+15/10/2016</t>
+  </si>
+  <si>
+    <t>Domingo
+16/10/2016</t>
+  </si>
+  <si>
+    <t>Segunda
+17/10/2016</t>
+  </si>
+  <si>
+    <t>Terça
+18/10/2016</t>
+  </si>
+  <si>
+    <t>Módulo Calendário</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +203,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -312,6 +306,13 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -495,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,20 +559,11 @@
     <xf numFmtId="4" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,7 +571,15 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,18 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -639,9 +627,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -657,22 +642,105 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="134">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -836,6 +904,32 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -972,32 +1066,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -2429,6 +2497,32 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -2612,35 +2706,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2652,28 +2746,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>35.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>31.412500000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>26.925000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>22.437500000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>17.950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>13.462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.9750000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.4875000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2745,35 +2839,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2785,31 +2879,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>35.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.629999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-9.629999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.629999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-17.38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-30.18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-30.18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-32.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,11 +2931,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="184086016"/>
-        <c:axId val="184409696"/>
+        <c:axId val="135175224"/>
+        <c:axId val="135176400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184086016"/>
+        <c:axId val="135175224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,7 +3016,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184409696"/>
+        <c:crossAx val="135176400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2930,7 +3024,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184409696"/>
+        <c:axId val="135176400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,6 +3075,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3012,7 +3107,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184086016"/>
+        <c:crossAx val="135175224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3025,6 +3120,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3121,35 +3217,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3161,28 +3257,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.71875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.65625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.59375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.0625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.53125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3254,35 +3350,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3294,31 +3390,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-11.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3346,11 +3442,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="184566664"/>
-        <c:axId val="184649488"/>
+        <c:axId val="135177184"/>
+        <c:axId val="135177576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184566664"/>
+        <c:axId val="135177184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,6 +3488,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3423,7 +3520,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184649488"/>
+        <c:crossAx val="135177576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3431,7 +3528,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184649488"/>
+        <c:axId val="135177576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3482,6 +3579,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3513,7 +3611,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184566664"/>
+        <c:crossAx val="135177184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3526,6 +3624,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3622,35 +3721,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3662,28 +3761,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.28125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.8125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.34375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.40625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.9375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.46875</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3755,35 +3854,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3795,31 +3894,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-6.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-10.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-10.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3847,11 +3946,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="184309656"/>
-        <c:axId val="185364024"/>
+        <c:axId val="135178360"/>
+        <c:axId val="135178752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184309656"/>
+        <c:axId val="135178360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3893,6 +3992,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3924,7 +4024,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185364024"/>
+        <c:crossAx val="135178752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3932,7 +4032,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185364024"/>
+        <c:axId val="135178752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3983,6 +4083,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4014,7 +4115,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184309656"/>
+        <c:crossAx val="135178360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4027,6 +4128,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4123,35 +4225,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4163,31 +4265,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>11.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.412499999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.9249999999999972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.4374999999999973</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.9499999999999975</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.4624999999999977</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.9749999999999979</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.487499999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-1.7763568394002505E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,35 +4358,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-05/10/2016</c:v>
+12/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-06/10/2016</c:v>
+13/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-07/10/2016</c:v>
+14/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-08/10/2016</c:v>
+15/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-09/10/2016</c:v>
+16/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-10/10/2016</c:v>
+17/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-11/10/2016</c:v>
+18/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4296,31 +4398,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>11.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-10.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-10.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-10.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4348,11 +4450,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="185275152"/>
-        <c:axId val="186067368"/>
+        <c:axId val="135179536"/>
+        <c:axId val="135179928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185275152"/>
+        <c:axId val="135179536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4394,6 +4496,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4425,7 +4528,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186067368"/>
+        <c:crossAx val="135179928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4433,7 +4536,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186067368"/>
+        <c:axId val="135179928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4484,6 +4587,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4515,7 +4619,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185275152"/>
+        <c:crossAx val="135179536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4528,6 +4632,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4594,13 +4699,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>161640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>457560</xdr:colOff>
+      <xdr:colOff>309600</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>4230</xdr:rowOff>
     </xdr:to>
@@ -4629,13 +4734,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>127800</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>437400</xdr:colOff>
+      <xdr:colOff>309600</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
@@ -4994,16 +5099,16 @@
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
-  <dimension ref="A1:AB1048572"/>
+  <dimension ref="A1:AB1048573"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView windowProtection="1" showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.7109375"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125"/>
     <col min="4" max="4" width="13.28515625"/>
     <col min="5" max="5" width="10.85546875"/>
@@ -5014,16 +5119,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5048,27 +5153,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="30">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5092,9 +5197,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5107,8 +5212,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5130,22 +5235,31 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="37">
-        <f>SUM(F5:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="23"/>
+      <c r="A4" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="54">
+        <v>4.25</v>
+      </c>
+      <c r="E4" s="60">
+        <f>SUM(D4:D12)</f>
+        <v>35.900000000000006</v>
+      </c>
+      <c r="F4" s="54">
+        <v>4.25</v>
+      </c>
+      <c r="G4" s="34">
+        <f>SUM(F4:F12)</f>
+        <v>35.900000000000006</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5166,23 +5280,29 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="28"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="53"/>
+      <c r="B5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="57">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="57">
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -5199,16 +5319,24 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="28"/>
+      <c r="A6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="58">
+        <v>4.2</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="58">
+        <v>4.2</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="25"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -5228,18 +5356,23 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="6"/>
+    <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="25"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -5260,16 +5393,22 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="28"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="20">
+        <v>5.75</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="20">
+        <v>5.75</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="6"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -5292,15 +5431,21 @@
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
-      <c r="B9" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="28"/>
+      <c r="B9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="6"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -5321,19 +5466,23 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="28"/>
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="6"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -5355,16 +5504,24 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="28"/>
+      <c r="A11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="6"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -5385,16 +5542,24 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+    <row r="12" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20">
+        <v>3.2</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="20">
+        <v>3.2</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="6"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -5405,6 +5570,14 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
@@ -5412,7 +5585,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5469,7 +5642,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -5490,7 +5663,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -5512,6 +5685,7 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -5572,8 +5746,6 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -5637,13 +5809,41 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
     </row>
-    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
     <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G4:G12"/>
+    <mergeCell ref="E4:E12"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -5651,20 +5851,14 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G4:G11"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:I4">
-    <cfRule type="expression" dxfId="127" priority="2">
+  <conditionalFormatting sqref="I1:I5">
+    <cfRule type="expression" dxfId="131" priority="2">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I4">
-    <cfRule type="notContainsText" dxfId="126" priority="3" operator="notContains" text="676766676ppppp"/>
+  <conditionalFormatting sqref="I1:I5">
+    <cfRule type="notContainsText" dxfId="130" priority="3" operator="notContains" text="676766676ppppp"/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5678,9 +5872,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5701,20 +5895,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -5773,40 +5967,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
+      <c r="A3" s="39">
         <v>8</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="43" t="s">
+      <c r="C3" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="40" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -5818,18 +6012,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -5844,35 +6038,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>35.900000000000006</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>31.412500000000005</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.925000000000004</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.437500000000004</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.950000000000003</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.462500000000002</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.9750000000000014</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.4875000000000007</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -5880,11 +6074,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>125.65000000000002</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>15.706250000000002</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -5900,47 +6094,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>35.900000000000006</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>35.900000000000006</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>-9.629999999999999</v>
+        <v>35.900000000000006</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>-9.629999999999999</v>
+        <v>35.900000000000006</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>-9.629999999999999</v>
+        <v>35.900000000000006</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>-17.38</v>
+        <v>21.700000000000006</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>-30.18</v>
+        <v>10.200000000000006</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>-30.18</v>
+        <v>10.200000000000006</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>-32.93</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>-139.56</v>
+        <v>185.70000000000007</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>-17.445</v>
+        <v>23.212500000000009</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -5978,18 +6172,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -6004,7 +6198,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>4.4875000000000007</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
@@ -6012,7 +6206,7 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="3"/>
-        <v>9.629999999999999</v>
+        <v>0</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="3"/>
@@ -6024,11 +6218,11 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>7.75</v>
+        <v>14.2</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>12.8</v>
+        <v>11.5</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
@@ -6036,15 +6230,15 @@
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>2.75</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>32.93</v>
+        <v>35.9</v>
       </c>
       <c r="L9" s="16">
         <f>K9/A$3</f>
-        <v>4.11625</v>
+        <v>4.4874999999999998</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -6060,14 +6254,14 @@
       </c>
       <c r="B10" s="18">
         <f>Diogo!B9</f>
-        <v>0</v>
+        <v>1.53125</v>
       </c>
       <c r="C10" s="13">
         <f>Diogo!C9</f>
         <v>0</v>
       </c>
       <c r="D10" s="13">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="13">
         <f>Diogo!E9</f>
@@ -6077,25 +6271,25 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="H10" s="13">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I10" s="13">
         <f>Diogo!I9</f>
         <v>0</v>
       </c>
       <c r="J10" s="13">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="K10" s="13">
         <f>SUM(C10:J10)</f>
-        <v>11.75</v>
+        <v>12.25</v>
       </c>
       <c r="L10" s="13">
         <f>K10/A$3</f>
-        <v>1.46875</v>
+        <v>1.53125</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -6111,14 +6305,14 @@
       </c>
       <c r="B11" s="19">
         <f>Ivo!B9</f>
-        <v>0</v>
+        <v>1.46875</v>
       </c>
       <c r="C11" s="13">
         <f>Ivo!C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="13">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -6127,25 +6321,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="H11" s="13">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I11" s="13">
-        <f>Ivo!I9</f>
         <v>0</v>
       </c>
       <c r="J11" s="13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>10.530000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>1.3162500000000001</v>
+        <v>1.46875</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -6161,14 +6354,14 @@
       </c>
       <c r="B12" s="18">
         <f>Izaquiel!B9</f>
-        <v>0</v>
+        <v>1.4874999999999998</v>
       </c>
       <c r="C12" s="13">
         <f>Izaquiel!C9</f>
         <v>0</v>
       </c>
       <c r="D12" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="13">
         <f>Izaquiel!E9</f>
@@ -6178,24 +6371,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="H12" s="13">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
       </c>
       <c r="J12" s="13">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K12" s="13">
         <f>SUM(C12:J12)</f>
-        <v>10.65</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="L12" s="13">
         <f>K12/A$3</f>
-        <v>1.33125</v>
+        <v>1.4874999999999998</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -6228,493 +6421,493 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:C10 B12">
-    <cfRule type="expression" dxfId="125" priority="33">
+    <cfRule type="expression" dxfId="129" priority="33">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="124" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="123" priority="35" operator="notEqual">
+    <cfRule type="cellIs" dxfId="127" priority="35" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10 B12">
-    <cfRule type="notContainsText" dxfId="122" priority="37" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="126" priority="37" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="121" priority="38">
+    <cfRule type="expression" dxfId="125" priority="38">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="120" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="119" priority="40" operator="notEqual">
+    <cfRule type="cellIs" dxfId="123" priority="40" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="118" priority="41">
+    <cfRule type="expression" dxfId="122" priority="41">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="117" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="116" priority="43" operator="notEqual">
+    <cfRule type="cellIs" dxfId="120" priority="43" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="115" priority="44">
+    <cfRule type="expression" dxfId="119" priority="44">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="114" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="113" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="117" priority="46" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="112" priority="47">
+    <cfRule type="expression" dxfId="116" priority="47">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="111" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="110" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="114" priority="49" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="109" priority="50">
+    <cfRule type="expression" dxfId="113" priority="50">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="108" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="107" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="111" priority="52" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="106" priority="53">
+    <cfRule type="expression" dxfId="110" priority="53">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="105" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="104" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="108" priority="55" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="103" priority="56">
+    <cfRule type="expression" dxfId="107" priority="56">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="102" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="101" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="105" priority="58" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="100" priority="59">
+    <cfRule type="expression" dxfId="104" priority="59">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="99" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="98" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="102" priority="61" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="97" priority="62">
+    <cfRule type="expression" dxfId="101" priority="62">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="96" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="95" priority="64" operator="notEqual">
+    <cfRule type="cellIs" dxfId="99" priority="64" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="94" priority="65">
+    <cfRule type="expression" dxfId="98" priority="65">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="93" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="92" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="96" priority="67" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="91" priority="68">
+    <cfRule type="expression" dxfId="95" priority="68">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="90" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="89" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="93" priority="70" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="88" priority="71">
+    <cfRule type="expression" dxfId="92" priority="71">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="87" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="86" priority="73" operator="notEqual">
+    <cfRule type="cellIs" dxfId="90" priority="73" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="85" priority="74">
+    <cfRule type="expression" dxfId="89" priority="74">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="84" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="83" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="87" priority="76" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="82" priority="77">
+    <cfRule type="expression" dxfId="86" priority="77">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="81" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="80" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="84" priority="79" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="79" priority="80">
+    <cfRule type="expression" dxfId="83" priority="80">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="77" priority="82" operator="notEqual">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="76" priority="83">
+    <cfRule type="expression" dxfId="80" priority="83">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="75" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="74" priority="85" operator="notEqual">
+    <cfRule type="cellIs" dxfId="78" priority="85" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="73" priority="86">
+    <cfRule type="expression" dxfId="77" priority="86">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="72" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="71" priority="88" operator="notEqual">
+    <cfRule type="cellIs" dxfId="75" priority="88" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="70" priority="89">
+    <cfRule type="expression" dxfId="74" priority="89">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="69" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="68" priority="91" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="91" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="67" priority="92">
+    <cfRule type="expression" dxfId="71" priority="92">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="66" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="93" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="65" priority="94" operator="notEqual">
+    <cfRule type="cellIs" dxfId="69" priority="94" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="64" priority="95">
+    <cfRule type="expression" dxfId="68" priority="95">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="63" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="96" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="62" priority="97" operator="notEqual">
+    <cfRule type="cellIs" dxfId="66" priority="97" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="61" priority="140">
+    <cfRule type="expression" dxfId="65" priority="140">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="60" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="141" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="59" priority="142" operator="notEqual">
+    <cfRule type="cellIs" dxfId="63" priority="142" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="58" priority="143">
+    <cfRule type="expression" dxfId="62" priority="143">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="57" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="144" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="56" priority="145" operator="notEqual">
+    <cfRule type="cellIs" dxfId="60" priority="145" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="55" priority="29">
+    <cfRule type="expression" dxfId="59" priority="29">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="54" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="53" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="31" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="52" priority="26">
+    <cfRule type="expression" dxfId="56" priority="26">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:J10">
-    <cfRule type="expression" dxfId="49" priority="23">
+    <cfRule type="expression" dxfId="53" priority="23">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:J10">
-    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:J10">
-    <cfRule type="cellIs" dxfId="47" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="46" priority="17">
+    <cfRule type="expression" dxfId="50" priority="17">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="45" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="44" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="19" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="43" priority="20">
+    <cfRule type="expression" dxfId="47" priority="20">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="41" priority="22" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="40" priority="13">
+    <cfRule type="expression" dxfId="44" priority="13">
       <formula>LEN(TRIM(B11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="notContainsText" dxfId="39" priority="14" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="43" priority="14" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="38" priority="7">
+    <cfRule type="expression" dxfId="42" priority="7">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="35" priority="10">
+    <cfRule type="expression" dxfId="39" priority="10">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6733,7 +6926,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6747,20 +6940,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -6819,40 +7012,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
+      <c r="A3" s="39">
         <v>8</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="43" t="s">
+      <c r="C3" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="40" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -6864,18 +7057,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -6890,35 +7083,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIF('Sprint Backlog'!C:C,"=Diogo",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>10.71875</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.1875</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.65625</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.125</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.59375</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.0625</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.53125</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -6926,11 +7119,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>42.875</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>5.359375</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -6946,47 +7139,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>-3.3</v>
+        <v>12.25</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>-3.3</v>
+        <v>12.25</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>-3.3</v>
+        <v>12.25</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>-5.8</v>
+        <v>8</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>-9</v>
+        <v>4.5</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>-9</v>
+        <v>4.5</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>-11.75</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>-45.45</v>
+        <v>66</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>-5.6812500000000004</v>
+        <v>8.25</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -7024,18 +7217,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7050,47 +7243,47 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>1.53125</v>
       </c>
       <c r="C9" s="16">
-        <f t="shared" ref="C9:L9" si="3">SUM(C10:C13)</f>
+        <f>SUM(C10:C12)</f>
         <v>0</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="3"/>
-        <v>3.3</v>
+        <f>SUM(D10:D12)</f>
+        <v>0</v>
       </c>
       <c r="E9" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(E10:E12)</f>
         <v>0</v>
       </c>
       <c r="F9" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(F10:F12)</f>
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
+        <f>SUM(G10:G12)</f>
+        <v>4.25</v>
       </c>
       <c r="H9" s="16">
-        <f t="shared" si="3"/>
-        <v>3.2</v>
+        <f>SUM(H10:H12)</f>
+        <v>3.5</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(I10:I12)</f>
         <v>0</v>
       </c>
       <c r="J9" s="16">
-        <f t="shared" si="3"/>
-        <v>2.75</v>
+        <f>SUM(J10:J12)</f>
+        <v>4.5</v>
       </c>
       <c r="K9" s="16">
-        <f t="shared" si="3"/>
-        <v>11.75</v>
+        <f>SUM(K10:K12)</f>
+        <v>12.25</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="3"/>
-        <v>1.46875</v>
+        <f>SUM(L10:L12)</f>
+        <v>1.53125</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -7101,15 +7294,15 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="51"/>
+      <c r="A10" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="47"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
       <c r="D10" s="13">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -7118,10 +7311,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="H10" s="13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -7131,25 +7324,25 @@
       </c>
       <c r="K10" s="13">
         <f>SUM(C10:J10)</f>
-        <v>5.8</v>
+        <v>7.75</v>
       </c>
       <c r="L10" s="13">
         <f>K10/A$3</f>
-        <v>0.72499999999999998</v>
+        <v>0.96875</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -7172,29 +7365,29 @@
         <v>0</v>
       </c>
       <c r="J11" s="13">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="49"/>
+    <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -7228,101 +7421,35 @@
         <v>0</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
-        <v>3.2</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>2.75</v>
-      </c>
-      <c r="K13" s="13">
-        <f>SUM(C13:J13)</f>
-        <v>5.95</v>
-      </c>
-      <c r="L13" s="13">
-        <f>K13/A$3</f>
-        <v>0.74375000000000002</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
-        <f>SUM(C14:J14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="13">
-        <f>K14/A$3</f>
-        <v>0</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7337,47 +7464,29 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="N13:O13"/>
   </mergeCells>
+  <conditionalFormatting sqref="C10:L96 N10:O12 B13:C13">
+    <cfRule type="expression" dxfId="30" priority="2">
+      <formula>LEN(TRIM(B10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="expression" dxfId="26" priority="2">
-      <formula>LEN(TRIM(C10))=0</formula>
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A10:B96">
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="27" priority="5">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B96">
-    <cfRule type="notContainsText" dxfId="22" priority="6" operator="notContains" text="9875894754())("/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:O13">
-    <cfRule type="expression" dxfId="21" priority="7">
-      <formula>LEN(TRIM(N10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:O13">
-    <cfRule type="notContainsText" dxfId="20" priority="8" operator="notContains" text="9875894754())("/>
+  <conditionalFormatting sqref="A10:B96 N10:O12 B13:C13">
+    <cfRule type="notContainsText" dxfId="26" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7394,7 +7503,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7408,20 +7517,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -7480,40 +7589,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
+      <c r="A3" s="39">
         <v>8</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="43" t="s">
+      <c r="C3" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="40" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -7525,18 +7634,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7551,35 +7660,35 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIF('Sprint Backlog'!C:C,"=Ivo",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>10.28125</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.8125</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.34375</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.875</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.40625</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9375</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.46875</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
@@ -7587,11 +7696,11 @@
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>41.125</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>5.140625</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -7607,47 +7716,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>-3.3</v>
+        <v>11.75</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>-3.3</v>
+        <v>11.75</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>-3.3</v>
+        <v>11.75</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>-6.3</v>
+        <v>6</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>-10.5</v>
+        <v>2.5</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>-10.5</v>
+        <v>2.5</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>-10.5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>-47.7</v>
+        <v>58</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>-5.9625000000000004</v>
+        <v>7.25</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -7685,18 +7794,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7711,7 +7820,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>1.46875</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C30)</f>
@@ -7719,7 +7828,7 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="3"/>
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="3"/>
@@ -7731,11 +7840,11 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
@@ -7743,15 +7852,15 @@
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>1.3125</v>
+        <v>1.46875</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -7761,11 +7870,11 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="51"/>
+    <row r="10" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="47"/>
       <c r="C10" s="21">
         <v>0</v>
       </c>
@@ -7806,11 +7915,11 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+    <row r="11" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="21">
         <v>0</v>
       </c>
@@ -7824,10 +7933,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="21">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="H11" s="21">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I11" s="21">
         <v>0</v>
@@ -7837,11 +7946,11 @@
       </c>
       <c r="K11" s="21">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="L11" s="21">
         <f>K11/A$3</f>
-        <v>0</v>
+        <v>1.15625</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -7851,16 +7960,16 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="49"/>
+    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="21">
         <v>0</v>
       </c>
       <c r="D12" s="21">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="21">
         <v>0</v>
@@ -7869,24 +7978,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="21">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="21">
         <v>0</v>
       </c>
       <c r="J12" s="21">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K12" s="21">
         <f>SUM(C12:J12)</f>
-        <v>10.5</v>
+        <v>2.5</v>
       </c>
       <c r="L12" s="21">
         <f>K12/A$3</f>
-        <v>1.3125</v>
+        <v>0.3125</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -7897,94 +8006,24 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
-        <v>0</v>
-      </c>
-      <c r="K13" s="21">
-        <f>SUM(C13:J13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="21">
-        <f>K13/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
-        <v>0</v>
-      </c>
-      <c r="K14" s="21">
-        <f>SUM(C14:J14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="21">
-        <f>K14/A$3</f>
-        <v>0</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="18">
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7999,58 +8038,52 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C15:L96 K10:L14">
-    <cfRule type="expression" dxfId="19" priority="12">
+  <conditionalFormatting sqref="C15:L96 K10:L12">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96 K10:L14">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+  <conditionalFormatting sqref="C15:L96 K10:L12">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96 K10:L14">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="notEqual">
+  <conditionalFormatting sqref="C15:L96 K10:L12">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="notContainsText" dxfId="15" priority="16" operator="notContains" text="9875894754())("/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J14">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="notContainsText" dxfId="21" priority="18" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:J12">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J14">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+  <conditionalFormatting sqref="C10:J12">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J14">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="notEqual">
+  <conditionalFormatting sqref="C10:J12">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B14">
-    <cfRule type="expression" dxfId="11" priority="1">
+  <conditionalFormatting sqref="A10:B12">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B14">
-    <cfRule type="notContainsText" dxfId="10" priority="2" operator="notContains" text="9875894754())("/>
+  <conditionalFormatting sqref="A10:B12">
+    <cfRule type="notContainsText" dxfId="14" priority="2" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8067,7 +8100,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8081,20 +8114,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -8153,40 +8186,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
+      <c r="A3" s="39">
         <v>8</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="43" t="s">
+      <c r="C3" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="40" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -8198,18 +8231,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8224,47 +8257,47 @@
       </c>
       <c r="B5" s="12">
         <f>SUMIF('Sprint Backlog'!C:C,"=Izaquiel",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>10.412499999999998</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.9249999999999972</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.4374999999999973</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9499999999999975</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.4624999999999977</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9749999999999979</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.487499999999998</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1.7763568394002505E-15</v>
       </c>
       <c r="K5" s="13">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>41.649999999999977</v>
       </c>
       <c r="L5" s="13">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>5.2062499999999972</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -8280,47 +8313,47 @@
       </c>
       <c r="B6" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="C6" s="13">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>0</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>-5.25</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>-10.65</v>
+        <v>7.6999999999999984</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
-        <v>-10.65</v>
+        <v>3.1999999999999984</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="2"/>
-        <v>-10.65</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>-46.199999999999996</v>
+        <v>70.399999999999991</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>-5.7749999999999995</v>
+        <v>8.7999999999999989</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -8358,18 +8391,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8384,7 +8417,7 @@
       </c>
       <c r="B9" s="16">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>1.4874999999999998</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:L9" si="3">SUM(C10:C30)</f>
@@ -8392,7 +8425,7 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="3"/>
@@ -8404,27 +8437,27 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="3"/>
-        <v>10.65</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>1.33125</v>
+        <v>1.4874999999999998</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -8435,10 +8468,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="51"/>
+      <c r="A10" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="47"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -8479,16 +8512,16 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
       <c r="D11" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -8497,24 +8530,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="H11" s="13">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I11" s="13">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J11" s="13">
         <v>0</v>
       </c>
       <c r="K11" s="13">
         <f>SUM(C11:J11)</f>
-        <v>5.25</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L11" s="13">
         <f>K11/A$3</f>
-        <v>0.65625</v>
+        <v>1.0874999999999999</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -8524,11 +8557,11 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="49"/>
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -8551,15 +8584,15 @@
         <v>0</v>
       </c>
       <c r="J12" s="13">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K12" s="13">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L12" s="13">
         <f>K12/A$3</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -8570,94 +8603,24 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
-        <f>SUM(C13:J13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="13">
-        <f>K13/A$3</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>5.4</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
-        <f>SUM(C14:J14)</f>
-        <v>5.4</v>
-      </c>
-      <c r="L14" s="13">
-        <f>K14/A$3</f>
-        <v>0.67500000000000004</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="18">
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -8672,58 +8635,52 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C15:L96 K10:L14">
-    <cfRule type="expression" dxfId="9" priority="10">
+  <conditionalFormatting sqref="C15:L96 K10:L12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96 K10:L14">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+  <conditionalFormatting sqref="C15:L96 K10:L12">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L96 K10:L14">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="notEqual">
+  <conditionalFormatting sqref="C15:L96 K10:L12">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="notContainsText" dxfId="5" priority="14" operator="notContains" text="9875894754())("/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J14">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="notContainsText" dxfId="9" priority="16" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:J12">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J14">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="C10:J12">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:J14">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="notEqual">
+  <conditionalFormatting sqref="C10:J12">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B14">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A10:B12">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B14">
-    <cfRule type="notContainsText" dxfId="0" priority="2" operator="notContains" text="9875894754())("/>
+  <conditionalFormatting sqref="A10:B12">
+    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Sprint 5/Sprint_5 Burndown-Backlog.xlsx
+++ b/Sprint 5/Sprint_5 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI\4-Periodo\PDS\SistemaC\SistemaC\Sprint 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Izaquiel\Desktop\PDS\Sprint 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -194,6 +194,9 @@
   <si>
     <t>Módulo Calendário</t>
   </si>
+  <si>
+    <t>Feito</t>
+  </si>
 </sst>
 </file>
 
@@ -315,7 +318,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,12 +389,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FF003366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
   </fills>
@@ -496,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,12 +562,6 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -579,8 +570,23 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -591,6 +597,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,6 +613,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,6 +636,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -623,6 +653,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -642,105 +675,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="134">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="126">
     <dxf>
       <fill>
         <patternFill>
@@ -904,32 +843,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -2497,32 +2410,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -2931,11 +2818,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="135175224"/>
-        <c:axId val="135176400"/>
+        <c:axId val="182879240"/>
+        <c:axId val="182877672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135175224"/>
+        <c:axId val="182879240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,7 +2903,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135176400"/>
+        <c:crossAx val="182877672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3024,7 +2911,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135176400"/>
+        <c:axId val="182877672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,7 +2994,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135175224"/>
+        <c:crossAx val="182879240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3442,11 +3329,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="135177184"/>
-        <c:axId val="135177576"/>
+        <c:axId val="182880024"/>
+        <c:axId val="182878848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135177184"/>
+        <c:axId val="182880024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,7 +3407,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135177576"/>
+        <c:crossAx val="182878848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3528,7 +3415,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135177576"/>
+        <c:axId val="182878848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,7 +3498,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135177184"/>
+        <c:crossAx val="182880024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3946,11 +3833,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="135178360"/>
-        <c:axId val="135178752"/>
+        <c:axId val="182880808"/>
+        <c:axId val="184216600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135178360"/>
+        <c:axId val="182880808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,7 +3911,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135178752"/>
+        <c:crossAx val="184216600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4032,7 +3919,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135178752"/>
+        <c:axId val="184216600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4115,7 +4002,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135178360"/>
+        <c:crossAx val="182880808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4413,10 +4300,10 @@
                   <c:v>11.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.899999999999999</c:v>
+                  <c:v>7.6999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6999999999999984</c:v>
+                  <c:v>3.1999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.1999999999999984</c:v>
@@ -4450,11 +4337,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="135179536"/>
-        <c:axId val="135179928"/>
+        <c:axId val="184216992"/>
+        <c:axId val="184215816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135179536"/>
+        <c:axId val="184216992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,7 +4415,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135179928"/>
+        <c:crossAx val="184215816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4536,7 +4423,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135179928"/>
+        <c:axId val="184215816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4619,7 +4506,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135179536"/>
+        <c:crossAx val="184216992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5101,8 +4988,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048573"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5119,16 +5006,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5153,27 +5040,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="37">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5197,9 +5084,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5212,8 +5099,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5235,30 +5122,32 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="28">
         <v>4.25</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="43">
         <f>SUM(D4:D12)</f>
         <v>35.900000000000006</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="28">
         <v>4.25</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="40">
         <f>SUM(F4:F12)</f>
         <v>35.900000000000006</v>
       </c>
-      <c r="H4" s="55"/>
+      <c r="H4" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="I4" s="22"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -5281,22 +5170,24 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="31">
         <v>3.5</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="57">
+      <c r="E5" s="44"/>
+      <c r="F5" s="31">
         <v>3.5</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="I5" s="22"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -5319,24 +5210,26 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="32">
         <v>4.2</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="58">
+      <c r="E6" s="44"/>
+      <c r="F6" s="32">
         <v>4.2</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="25"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -5357,8 +5250,8 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -5367,12 +5260,14 @@
       <c r="D7" s="20">
         <v>4.5</v>
       </c>
-      <c r="E7" s="61"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="20">
         <v>4.5</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -5393,8 +5288,8 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -5403,12 +5298,14 @@
       <c r="D8" s="20">
         <v>5.75</v>
       </c>
-      <c r="E8" s="61"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="20">
         <v>5.75</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -5430,8 +5327,8 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -5440,12 +5337,14 @@
       <c r="D9" s="20">
         <v>3.5</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="20">
         <v>3.5</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -5467,8 +5366,8 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -5477,12 +5376,14 @@
       <c r="D10" s="20">
         <v>4.5</v>
       </c>
-      <c r="E10" s="61"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="20">
         <v>4.5</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -5504,10 +5405,10 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -5516,12 +5417,14 @@
       <c r="D11" s="20">
         <v>2.5</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="20">
         <v>2.5</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -5543,8 +5446,8 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -5553,12 +5456,14 @@
       <c r="D12" s="20">
         <v>3.2</v>
       </c>
-      <c r="E12" s="62"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="20">
         <v>3.2</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -5585,7 +5490,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="59"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5838,12 +5743,6 @@
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G4:G12"/>
-    <mergeCell ref="E4:E12"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -5851,14 +5750,20 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G4:G12"/>
+    <mergeCell ref="E4:E12"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I5">
-    <cfRule type="expression" dxfId="131" priority="2">
+    <cfRule type="expression" dxfId="125" priority="2">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I5">
-    <cfRule type="notContainsText" dxfId="130" priority="3" operator="notContains" text="676766676ppppp"/>
+    <cfRule type="notContainsText" dxfId="124" priority="3" operator="notContains" text="676766676ppppp"/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5872,7 +5777,7 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
@@ -5895,20 +5800,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -5967,40 +5872,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -6012,18 +5917,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -6172,18 +6077,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -6421,493 +6326,493 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:C10 B12">
-    <cfRule type="expression" dxfId="129" priority="33">
+    <cfRule type="expression" dxfId="123" priority="33">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="128" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="127" priority="35" operator="notEqual">
+    <cfRule type="cellIs" dxfId="121" priority="35" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10 B12">
-    <cfRule type="notContainsText" dxfId="126" priority="37" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="120" priority="37" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="125" priority="38">
+    <cfRule type="expression" dxfId="119" priority="38">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="124" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="123" priority="40" operator="notEqual">
+    <cfRule type="cellIs" dxfId="117" priority="40" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="122" priority="41">
+    <cfRule type="expression" dxfId="116" priority="41">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="121" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="120" priority="43" operator="notEqual">
+    <cfRule type="cellIs" dxfId="114" priority="43" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="119" priority="44">
+    <cfRule type="expression" dxfId="113" priority="44">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="118" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="117" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="111" priority="46" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="116" priority="47">
+    <cfRule type="expression" dxfId="110" priority="47">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="115" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="114" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="108" priority="49" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="113" priority="50">
+    <cfRule type="expression" dxfId="107" priority="50">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="112" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="111" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="105" priority="52" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="110" priority="53">
+    <cfRule type="expression" dxfId="104" priority="53">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="109" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="108" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="102" priority="55" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="107" priority="56">
+    <cfRule type="expression" dxfId="101" priority="56">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="106" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="105" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="99" priority="58" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="104" priority="59">
+    <cfRule type="expression" dxfId="98" priority="59">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="103" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="102" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="96" priority="61" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="101" priority="62">
+    <cfRule type="expression" dxfId="95" priority="62">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="100" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="99" priority="64" operator="notEqual">
+    <cfRule type="cellIs" dxfId="93" priority="64" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="98" priority="65">
+    <cfRule type="expression" dxfId="92" priority="65">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="97" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="96" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="90" priority="67" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="95" priority="68">
+    <cfRule type="expression" dxfId="89" priority="68">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="94" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="93" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="87" priority="70" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="92" priority="71">
+    <cfRule type="expression" dxfId="86" priority="71">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="91" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="90" priority="73" operator="notEqual">
+    <cfRule type="cellIs" dxfId="84" priority="73" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="89" priority="74">
+    <cfRule type="expression" dxfId="83" priority="74">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="88" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="87" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="81" priority="76" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="86" priority="77">
+    <cfRule type="expression" dxfId="80" priority="77">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="85" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="78" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="84" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="83" priority="80">
+    <cfRule type="expression" dxfId="77" priority="80">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="81" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="notEqual">
+    <cfRule type="cellIs" dxfId="75" priority="82" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="80" priority="83">
+    <cfRule type="expression" dxfId="74" priority="83">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="79" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="78" priority="85" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="85" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="77" priority="86">
+    <cfRule type="expression" dxfId="71" priority="86">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="76" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="75" priority="88" operator="notEqual">
+    <cfRule type="cellIs" dxfId="69" priority="88" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="74" priority="89">
+    <cfRule type="expression" dxfId="68" priority="89">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="73" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="72" priority="91" operator="notEqual">
+    <cfRule type="cellIs" dxfId="66" priority="91" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="71" priority="92">
+    <cfRule type="expression" dxfId="65" priority="92">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="70" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="93" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="69" priority="94" operator="notEqual">
+    <cfRule type="cellIs" dxfId="63" priority="94" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="68" priority="95">
+    <cfRule type="expression" dxfId="62" priority="95">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="67" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="96" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="66" priority="97" operator="notEqual">
+    <cfRule type="cellIs" dxfId="60" priority="97" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="65" priority="140">
+    <cfRule type="expression" dxfId="59" priority="140">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="64" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="141" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="63" priority="142" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="142" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="62" priority="143">
+    <cfRule type="expression" dxfId="56" priority="143">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="61" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="144" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="60" priority="145" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="145" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="59" priority="29">
+    <cfRule type="expression" dxfId="53" priority="29">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="58" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="57" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="31" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="56" priority="26">
+    <cfRule type="expression" dxfId="50" priority="26">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="54" priority="28" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="28" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:J10">
-    <cfRule type="expression" dxfId="53" priority="23">
+    <cfRule type="expression" dxfId="47" priority="23">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:J10">
-    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:J10">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="50" priority="17">
+    <cfRule type="expression" dxfId="44" priority="17">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="48" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="47" priority="20">
+    <cfRule type="expression" dxfId="41" priority="20">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="46" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:J11">
-    <cfRule type="cellIs" dxfId="45" priority="22" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="44" priority="13">
+    <cfRule type="expression" dxfId="38" priority="13">
       <formula>LEN(TRIM(B11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="notContainsText" dxfId="43" priority="14" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="37" priority="14" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="42" priority="7">
+    <cfRule type="expression" dxfId="36" priority="7">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="39" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="37" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="36" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J12">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6940,20 +6845,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -7012,40 +6917,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -7057,18 +6962,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7217,18 +7122,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7246,43 +7151,43 @@
         <v>1.53125</v>
       </c>
       <c r="C9" s="16">
-        <f>SUM(C10:C12)</f>
+        <f t="shared" ref="C9:L9" si="3">SUM(C10:C12)</f>
         <v>0</v>
       </c>
       <c r="D9" s="16">
-        <f>SUM(D10:D12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9" s="16">
-        <f>SUM(E10:E12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9" s="16">
-        <f>SUM(F10:F12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <f>SUM(G10:G12)</f>
+        <f t="shared" si="3"/>
         <v>4.25</v>
       </c>
       <c r="H9" s="16">
-        <f>SUM(H10:H12)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="I9" s="16">
-        <f>SUM(I10:I12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="16">
-        <f>SUM(J10:J12)</f>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="K9" s="16">
-        <f>SUM(K10:K12)</f>
+        <f t="shared" si="3"/>
         <v>12.25</v>
       </c>
       <c r="L9" s="16">
-        <f>SUM(L10:L12)</f>
+        <f t="shared" si="3"/>
         <v>1.53125</v>
       </c>
       <c r="M9" s="7"/>
@@ -7294,10 +7199,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -7331,18 +7236,18 @@
         <v>0.96875</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -7376,18 +7281,18 @@
         <v>0.5625</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -7421,8 +7326,8 @@
         <v>0</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -7430,8 +7335,8 @@
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -7442,14 +7347,6 @@
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -7464,29 +7361,37 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96 N10:O12 B13:C13">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B96">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B96 N10:O12 B13:C13">
-    <cfRule type="notContainsText" dxfId="26" priority="6" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="20" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7517,20 +7422,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -7589,40 +7494,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -7634,18 +7539,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -7794,18 +7699,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -7871,10 +7776,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="21">
         <v>0</v>
       </c>
@@ -7916,10 +7821,10 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="21">
         <v>0</v>
       </c>
@@ -7961,10 +7866,10 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="21">
         <v>0</v>
       </c>
@@ -8020,6 +7925,8 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -8036,54 +7943,52 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="expression" dxfId="22" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="notContainsText" dxfId="21" priority="18" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="15" priority="18" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:J12">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:J12">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:J12">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B12">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B12">
-    <cfRule type="notContainsText" dxfId="14" priority="2" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="10" priority="2" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8100,7 +8005,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8114,20 +8019,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -8186,40 +8091,40 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39">
+      <c r="A3" s="48">
         <v>8</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="7"/>
@@ -8231,18 +8136,18 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -8333,11 +8238,11 @@
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>11.899999999999999</v>
+        <v>7.6999999999999984</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="2"/>
-        <v>7.6999999999999984</v>
+        <v>3.1999999999999984</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="2"/>
@@ -8349,11 +8254,11 @@
       </c>
       <c r="K6" s="13">
         <f>SUM(C6:J6)</f>
-        <v>70.399999999999991</v>
+        <v>61.699999999999982</v>
       </c>
       <c r="L6" s="13">
         <f>K6/A$3</f>
-        <v>8.7999999999999989</v>
+        <v>7.7124999999999977</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -8391,18 +8296,18 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -8437,15 +8342,15 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="3"/>
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="3"/>
@@ -8468,10 +8373,10 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="13">
         <v>0</v>
       </c>
@@ -8513,10 +8418,10 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="13">
         <v>0</v>
       </c>
@@ -8530,13 +8435,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H11" s="13">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I11" s="13">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="J11" s="13">
         <v>0</v>
@@ -8558,10 +8463,10 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="13">
         <v>0</v>
       </c>
@@ -8617,6 +8522,8 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -8633,54 +8540,52 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:L96 K10:L12">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B96">
-    <cfRule type="notContainsText" dxfId="9" priority="16" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="5" priority="16" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:J12">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:J12">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:J12">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B12">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B12">
-    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="0" priority="2" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
